--- a/Synthetic_Myddosome_Manuscript/ELISA/Plate_1_20220701/20220701_Plate_1.xlsx
+++ b/Synthetic_Myddosome_Manuscript/ELISA/Plate_1_20220701/20220701_Plate_1.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TAYLOR-LAB/Synthetic Myddosome Paper/6_Manuscript/Source files/Figure 1/1C/Plate_1_20220701/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EAE902-75D8-FE49-92D7-A6B85D398813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1460" yWindow="880" windowWidth="29080" windowHeight="18880" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MEASUREMENTS" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="STIM_DAYS" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="CELL_LINES" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="CONDITIONS" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="DILUTIONS" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="STIM_TIME" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="STIM_CONCENTRATION" sheetId="7" r:id="rId10"/>
+    <sheet name="MEASUREMENTS" sheetId="1" r:id="rId1"/>
+    <sheet name="STIM_DAYS" sheetId="2" r:id="rId2"/>
+    <sheet name="CELL_LINES" sheetId="3" r:id="rId3"/>
+    <sheet name="CONDITIONS" sheetId="4" r:id="rId4"/>
+    <sheet name="DILUTIONS" sheetId="5" r:id="rId5"/>
+    <sheet name="STIM_TIME" sheetId="6" r:id="rId6"/>
+    <sheet name="STIM_CONCENTRATION" sheetId="7" r:id="rId7"/>
+    <sheet name="PATHWAY" sheetId="8" r:id="rId8"/>
+    <sheet name="STIMULANT" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="11">
   <si>
     <t>NA</t>
   </si>
@@ -45,39 +56,56 @@
   <si>
     <t>CALIBRATION</t>
   </si>
+  <si>
+    <t>IL-1R</t>
+  </si>
+  <si>
+    <t>IL-1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -85,7 +113,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -305,7 +333,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -319,176 +353,159 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="11" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="12" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="13" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="14" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="15" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="16" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="17" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="18" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="19" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="20" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="21" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="22" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="23" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="24" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="25" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="26" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="27" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="28" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="29" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="30" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="31" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="32" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="33" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="34" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="35" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="36" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="37" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -678,321 +695,324 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1">
-        <v>0.5155</v>
+        <v>0.51549999999999996</v>
       </c>
       <c r="B1" s="2">
-        <v>0.4605</v>
+        <v>0.46050000000000002</v>
       </c>
       <c r="C1" s="3">
-        <v>0.4704</v>
+        <v>0.47039999999999998</v>
       </c>
       <c r="D1" s="4">
-        <v>0.0323</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="E1" s="5">
-        <v>0.0249</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="F1" s="6">
-        <v>0.0374</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="G1" s="7">
-        <v>0.3149</v>
+        <v>0.31490000000000001</v>
       </c>
       <c r="H1" s="8">
-        <v>0.2902</v>
+        <v>0.29020000000000001</v>
       </c>
       <c r="I1" s="9">
         <v>0.2737</v>
       </c>
       <c r="J1" s="10">
-        <v>0.0223</v>
+        <v>2.23E-2</v>
       </c>
       <c r="K1" s="5">
-        <v>0.0256</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="L1" s="4">
-        <v>0.0329</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="11">
         <v>0.7591</v>
       </c>
       <c r="B2" s="12">
-        <v>0.7017</v>
+        <v>0.70169999999999999</v>
       </c>
       <c r="C2" s="13">
-        <v>0.6369</v>
+        <v>0.63690000000000002</v>
       </c>
       <c r="D2" s="10">
-        <v>0.0202</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="E2" s="14">
-        <v>0.0149</v>
+        <v>1.49E-2</v>
       </c>
       <c r="F2" s="10">
-        <v>0.0205</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="G2" s="15">
-        <v>0.9575</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="H2" s="16">
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I2" s="17">
-        <v>0.906</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="J2" s="10">
-        <v>0.0213</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="K2" s="5">
-        <v>0.0249</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="L2" s="4">
-        <v>0.0291</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="18">
-        <v>0.0128</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="B3" s="19">
         <v>0.01</v>
       </c>
       <c r="C3" s="19">
-        <v>0.0101</v>
+        <v>1.01E-2</v>
       </c>
       <c r="D3" s="19">
-        <v>0.0109</v>
+        <v>1.09E-2</v>
       </c>
       <c r="E3" s="20">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F3" s="20">
-        <v>0.0166</v>
+        <v>1.66E-2</v>
       </c>
       <c r="G3" s="6">
-        <v>0.0395</v>
+        <v>3.95E-2</v>
       </c>
       <c r="H3" s="5">
-        <v>0.0255</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="I3" s="5">
-        <v>0.0227</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="J3" s="5">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K3" s="5">
-        <v>0.0251</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="L3" s="5">
-        <v>0.0236</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="21">
-        <v>-0.0013</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="B4" s="21">
-        <v>0.0034</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="C4" s="22">
-        <v>0.0061</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="D4" s="22">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E4" s="23">
-        <v>0.0045</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="F4" s="22">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
       <c r="G4" s="22">
-        <v>0.0094</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="H4" s="22">
-        <v>0.0056</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="I4" s="14">
-        <v>0.0145</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="J4" s="22">
-        <v>0.0065</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="K4" s="21">
-        <v>-0.0026</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="L4" s="22">
-        <v>0.0081</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="14">
-        <v>0.0153</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="B5" s="14">
-        <v>0.0155</v>
+        <v>1.55E-2</v>
       </c>
       <c r="C5" s="14">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D5" s="5">
-        <v>0.0229</v>
+        <v>2.29E-2</v>
       </c>
       <c r="E5" s="24">
-        <v>0.0274</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F5" s="24">
-        <v>0.0267</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="G5" s="4">
-        <v>0.0295</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="H5" s="10">
-        <v>0.0219</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="I5" s="5">
-        <v>0.0242</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="J5" s="4">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="K5" s="25">
-        <v>0.0287</v>
+        <v>2.87E-2</v>
       </c>
       <c r="L5" s="5">
-        <v>0.0235</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="26">
-        <v>0.5812</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="B6" s="6">
-        <v>0.0391</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="C6" s="27">
-        <v>0.8026</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="D6" s="10">
-        <v>0.0205</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="E6" s="19">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F6" s="19">
-        <v>0.0102</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="G6" s="14">
-        <v>0.0145</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="H6" s="22">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I6" s="14">
-        <v>0.0153</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="J6" s="14">
-        <v>0.0134</v>
+        <v>1.34E-2</v>
       </c>
       <c r="K6" s="28">
-        <v>0.9265</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="L6" s="29">
         <v>0.6099</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="30">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="B7" s="25">
-        <v>0.0284</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="C7" s="31">
-        <v>0.8242</v>
+        <v>0.82420000000000004</v>
       </c>
       <c r="D7" s="14">
-        <v>0.0148</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="E7" s="22">
-        <v>0.0082</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F7" s="14">
-        <v>0.0154</v>
+        <v>1.54E-2</v>
       </c>
       <c r="G7" s="23">
-        <v>0.0046</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="H7" s="22">
-        <v>0.0085</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="I7" s="19">
-        <v>0.0109</v>
+        <v>1.09E-2</v>
       </c>
       <c r="J7" s="19">
-        <v>0.0101</v>
+        <v>1.01E-2</v>
       </c>
       <c r="K7" s="32">
-        <v>0.3454</v>
+        <v>0.34539999999999998</v>
       </c>
       <c r="L7" s="33">
-        <v>0.2022</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.20219999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="34">
-        <v>0.6219</v>
+        <v>0.62190000000000001</v>
       </c>
       <c r="B8" s="5">
-        <v>0.0261</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="C8" s="35">
-        <v>0.8289</v>
+        <v>0.82889999999999997</v>
       </c>
       <c r="D8" s="14">
-        <v>0.0139</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="E8" s="18">
-        <v>0.0128</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="F8" s="20">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="G8" s="23">
-        <v>0.0039</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="H8" s="22">
-        <v>0.0095</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="I8" s="14">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J8" s="21">
-        <v>0.0021</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="K8" s="36">
-        <v>0.0985</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="L8" s="21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1006,240 +1026,241 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H1" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I1" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J1" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K1" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L1" s="37">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K2" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="37">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L3" s="37">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="37">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="37">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="37">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="37">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="37" t="s">
         <v>0</v>
@@ -1248,36 +1269,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B7" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="37" t="s">
         <v>0</v>
@@ -1286,36 +1307,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="38">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="37" t="s">
         <v>0</v>
@@ -1325,21 +1346,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
@@ -1377,45 +1399,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="C2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="E2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="F2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="G2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="H2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="I2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="J2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="K2" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="L2" s="39">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="39" t="s">
         <v>1</v>
       </c>
@@ -1537,10 +1559,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D6" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>2</v>
@@ -1561,13 +1583,13 @@
         <v>4</v>
       </c>
       <c r="K6" s="40">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="40">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="39" t="s">
         <v>1</v>
       </c>
@@ -1575,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D7" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>2</v>
@@ -1599,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="K7" s="40">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="L7" s="40">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>1</v>
       </c>
@@ -1613,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D8" s="39">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>2</v>
@@ -1644,21 +1666,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
@@ -1734,7 +1757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +1871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
@@ -1886,7 +1909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
@@ -1924,7 +1947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="37" t="s">
         <v>6</v>
       </c>
@@ -1963,963 +1986,1606 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L1" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L3" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L7" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="H1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="J1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K1" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L1" s="37">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="H2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="J2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K2" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L2" s="37">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="H3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="J3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K3" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L3" s="37">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="H4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="J4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K4" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L4" s="37">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="H5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="J5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K5" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L5" s="37">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="H6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="J6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K6" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L6" s="37">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="H7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="J7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K7" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L7" s="37">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="G8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="H8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="J8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L8" s="37">
-        <v>24.0</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K1" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L1" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K3" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L3" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K5" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L7" s="37">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="37">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38209B4D-B799-6E4C-BB12-E8C456FBA441}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15">
+      <c r="A1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC64ADF-5470-E743-995B-779D592381EE}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>